--- a/xlsx/管理工程_intext.xlsx
+++ b/xlsx/管理工程_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="447">
   <si>
     <t>管理工程</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>政策_政策_管理_管理工程</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>科學管理</t>
+    <t>科学管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E6%A5%AD</t>
   </si>
   <si>
-    <t>製造業</t>
+    <t>制造业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_Management</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E6%A9%9F%E9%81%8E%E7%A8%8B</t>
   </si>
   <si>
-    <t>隨機過程</t>
+    <t>随机过程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%8F%AF%E5%A4%AB%E9%8F%88</t>
   </si>
   <si>
-    <t>馬爾可夫鏈</t>
+    <t>马尔可夫链</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E9%98%9F%E8%AE%BA</t>
@@ -107,15 +107,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AB%96</t>
   </si>
   <si>
-    <t>博弈論</t>
+    <t>博弈论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>系統工程</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%B5%81</t>
   </si>
   <si>
@@ -131,13 +128,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E5%95%86%E5%8B%99</t>
   </si>
   <si>
-    <t>電子商務</t>
+    <t>电子商务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>知識管理</t>
+    <t>知识管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E6%8C%96%E6%8E%98</t>
@@ -149,19 +146,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>喬治亞理工學院</t>
+    <t>乔治亚理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密歇根大學</t>
+    <t>密歇根大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E4%BC%AF%E5%85%8B%E5%88%A9%E5%A4%A7%E5%AD%A6</t>
@@ -173,25 +170,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%BA%A6%E5%A4%A7%E5%AD%B8%E5%B7%A5%E6%A5%AD%E5%B7%A5%E7%A8%8B%E5%AD%B8%E7%B3%BB</t>
   </si>
   <si>
-    <t>普度大學工業工程學系</t>
+    <t>普度大学工业工程学系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹福大學</t>
+    <t>史丹福大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E8%BE%B2%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德州農工大學</t>
+    <t>德州农工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西北大學</t>
+    <t>西北大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>維吉尼亞理工大學</t>
+    <t>维吉尼亚理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87</t>
@@ -221,37 +218,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>藝術</t>
+    <t>艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然科學</t>
+    <t>自然科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%A9%8D%E5%88%86</t>
   </si>
   <si>
-    <t>微積分</t>
+    <t>微积分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>工程數學</t>
+    <t>工程数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88</t>
   </si>
   <si>
-    <t>統計</t>
+    <t>统计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%88%86%E6%96%B9%E7%A8%8B</t>
@@ -275,19 +272,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E5%88%86%E6%96%B9%E7%A8%8B</t>
   </si>
   <si>
-    <t>積分方程</t>
+    <t>积分方程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%80%BC%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>數值分析</t>
+    <t>数值分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>力學</t>
+    <t>力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%AD%A6</t>
@@ -299,31 +296,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>電學</t>
+    <t>电学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E5%AD%B8</t>
   </si>
   <si>
-    <t>磁學</t>
+    <t>磁学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>工程經濟</t>
+    <t>工程经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E8%BC%94%E5%8A%A9%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>電腦輔助設計</t>
+    <t>电脑辅助设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E8%BC%94%E5%8A%A9%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>電腦輔助製造</t>
+    <t>电脑辅助制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E5%B7%A5%E7%A8%8B</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>生產系統</t>
+    <t>生产系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%83%E5%BA%A6</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E9%87%8F%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>質量控制</t>
+    <t>质量控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%BF%A1%E6%81%AF%E7%B3%BB%E7%BB%9F</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E9%A4%8A%E6%AE%96</t>
   </si>
   <si>
-    <t>水產養殖</t>
+    <t>水产养殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%A7%E5%AD%A6</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
@@ -473,13 +470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康科學</t>
+    <t>健康科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AA%A2%E9%A9%97</t>
   </si>
   <si>
-    <t>生化檢驗</t>
+    <t>生化检验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E7%90%86%E5%AD%A6</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E5%B7%A5%E7%A8%8B</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>結構工程</t>
+    <t>结构工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF</t>
@@ -641,31 +638,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E8%97%A5</t>
   </si>
   <si>
-    <t>彈藥</t>
+    <t>弹药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>炸彈</t>
+    <t>炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>軍事技術</t>
+    <t>军事技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>電子作戰</t>
+    <t>电子作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>低可偵測性技術</t>
+    <t>低可侦测性技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟件工程</t>
+    <t>软件工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%8A%80%E6%9C%AF</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%B7%A5%E7%A8%8B</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>工程技術</t>
+    <t>工程技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>運輸工程</t>
+    <t>运输工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%9C%BA%E6%A2%B0%E5%AD%A6</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
+    <t>制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0</t>
@@ -995,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>生態工程</t>
+    <t>生态工程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clean_technology</t>
@@ -1049,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
@@ -1091,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>微系統</t>
+    <t>微系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%8A%80%E6%9C%AF</t>
@@ -1127,13 +1124,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>基礎設施</t>
+    <t>基础设施</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E6%98%8E%E5%B9%B4%E8%A1%A8</t>
@@ -1145,13 +1142,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>機器</t>
+    <t>机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%83%BD</t>
@@ -1187,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -1199,13 +1196,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%97%E5%8C%96%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>數字化革命</t>
+    <t>数字化革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>第三次工業革命</t>
+    <t>第三次工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%97%B6%E4%BB%A3</t>
@@ -1259,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E%E6%80%A7%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>破壞性創新</t>
+    <t>破坏性创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -1289,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
   </si>
   <si>
-    <t>技術官僚</t>
+    <t>技术官僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%A5%87%E5%BC%82%E7%82%B9</t>
@@ -1331,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>新興技術列表</t>
+    <t>新兴技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E8%BE%BE%E8%82%96%E5%A4%AB%E6%8C%87%E6%95%B0</t>
@@ -2164,7 +2161,7 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -2219,10 +2216,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -2248,10 +2245,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2277,10 +2274,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2306,10 +2303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -2335,10 +2332,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2364,10 +2361,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2393,10 +2390,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2422,10 +2419,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2451,10 +2448,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2480,10 +2477,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2509,10 +2506,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2538,10 +2535,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2567,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2596,10 +2593,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2625,10 +2622,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2654,10 +2651,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2683,10 +2680,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2712,10 +2709,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2741,10 +2738,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2770,10 +2767,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -2799,10 +2796,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>7</v>
@@ -2828,10 +2825,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2857,10 +2854,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2886,10 +2883,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2915,10 +2912,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -2944,10 +2941,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2973,10 +2970,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3002,10 +2999,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3031,10 +3028,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3060,10 +3057,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3089,10 +3086,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3118,10 +3115,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3147,10 +3144,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3176,10 +3173,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3205,10 +3202,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3234,10 +3231,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3263,10 +3260,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3292,10 +3289,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3321,10 +3318,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3350,10 +3347,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3379,10 +3376,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3408,10 +3405,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -3437,10 +3434,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -3466,10 +3463,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>26</v>
@@ -3495,10 +3492,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3524,10 +3521,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3553,10 +3550,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3582,10 +3579,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3611,10 +3608,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3640,10 +3637,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3669,10 +3666,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3698,10 +3695,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3727,10 +3724,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3756,10 +3753,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3785,10 +3782,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3814,10 +3811,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3843,10 +3840,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3872,10 +3869,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3901,10 +3898,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3930,10 +3927,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3959,10 +3956,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3988,10 +3985,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4017,10 +4014,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4046,10 +4043,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4075,10 +4072,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4104,10 +4101,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4133,10 +4130,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4162,10 +4159,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4191,10 +4188,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4220,10 +4217,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -4249,10 +4246,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4278,10 +4275,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4307,10 +4304,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4336,10 +4333,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4365,10 +4362,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4394,10 +4391,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4423,10 +4420,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4452,10 +4449,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4481,10 +4478,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4510,10 +4507,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4539,10 +4536,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4568,10 +4565,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>5</v>
@@ -4597,10 +4594,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4626,10 +4623,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4655,10 +4652,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4684,10 +4681,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4713,10 +4710,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4742,10 +4739,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4771,10 +4768,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4800,10 +4797,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4829,10 +4826,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4858,10 +4855,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4887,10 +4884,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4916,10 +4913,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4945,10 +4942,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>12</v>
@@ -4974,10 +4971,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5003,10 +5000,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5032,10 +5029,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5061,10 +5058,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5090,10 +5087,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5119,10 +5116,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5148,10 +5145,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5177,10 +5174,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5206,10 +5203,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5235,10 +5232,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5264,10 +5261,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5293,10 +5290,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5322,10 +5319,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5351,10 +5348,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5380,10 +5377,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5409,10 +5406,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5438,10 +5435,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5467,10 +5464,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5496,10 +5493,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5525,10 +5522,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5554,10 +5551,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5583,10 +5580,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5612,10 +5609,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5641,10 +5638,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5670,10 +5667,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5699,10 +5696,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5728,10 +5725,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5757,10 +5754,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>11</v>
@@ -5786,10 +5783,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5815,10 +5812,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5844,10 +5841,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5873,10 +5870,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5902,10 +5899,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5931,10 +5928,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5960,10 +5957,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5989,10 +5986,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6018,10 +6015,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6047,10 +6044,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6076,10 +6073,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>10</v>
@@ -6105,10 +6102,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>6</v>
@@ -6134,10 +6131,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6163,10 +6160,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6192,10 +6189,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6221,10 +6218,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -6250,10 +6247,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6279,10 +6276,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6308,10 +6305,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6337,10 +6334,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6366,10 +6363,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6395,10 +6392,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6424,10 +6421,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6453,10 +6450,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6482,10 +6479,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6511,10 +6508,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6540,10 +6537,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6569,10 +6566,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6598,10 +6595,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6627,10 +6624,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6656,10 +6653,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6685,10 +6682,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6714,10 +6711,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6743,10 +6740,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6772,10 +6769,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6801,10 +6798,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6830,10 +6827,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6859,10 +6856,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6888,10 +6885,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6917,10 +6914,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6946,10 +6943,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6975,10 +6972,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7004,10 +7001,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7033,10 +7030,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>284</v>
+      </c>
+      <c r="F184" t="s">
         <v>285</v>
-      </c>
-      <c r="F184" t="s">
-        <v>286</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7062,10 +7059,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>364</v>
+      </c>
+      <c r="F185" t="s">
         <v>365</v>
-      </c>
-      <c r="F185" t="s">
-        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7091,10 +7088,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>366</v>
+      </c>
+      <c r="F186" t="s">
         <v>367</v>
-      </c>
-      <c r="F186" t="s">
-        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7120,10 +7117,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>368</v>
+      </c>
+      <c r="F187" t="s">
         <v>369</v>
-      </c>
-      <c r="F187" t="s">
-        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7149,10 +7146,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>370</v>
+      </c>
+      <c r="F188" t="s">
         <v>371</v>
-      </c>
-      <c r="F188" t="s">
-        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7178,10 +7175,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>372</v>
+      </c>
+      <c r="F189" t="s">
         <v>373</v>
-      </c>
-      <c r="F189" t="s">
-        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7207,10 +7204,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>374</v>
+      </c>
+      <c r="F190" t="s">
         <v>375</v>
-      </c>
-      <c r="F190" t="s">
-        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -7236,10 +7233,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>376</v>
+      </c>
+      <c r="F191" t="s">
         <v>377</v>
-      </c>
-      <c r="F191" t="s">
-        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7265,10 +7262,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>378</v>
+      </c>
+      <c r="F192" t="s">
         <v>379</v>
-      </c>
-      <c r="F192" t="s">
-        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7294,10 +7291,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>380</v>
+      </c>
+      <c r="F193" t="s">
         <v>381</v>
-      </c>
-      <c r="F193" t="s">
-        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7323,10 +7320,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>382</v>
+      </c>
+      <c r="F194" t="s">
         <v>383</v>
-      </c>
-      <c r="F194" t="s">
-        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>8</v>
@@ -7352,10 +7349,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>384</v>
+      </c>
+      <c r="F195" t="s">
         <v>385</v>
-      </c>
-      <c r="F195" t="s">
-        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7381,10 +7378,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>386</v>
+      </c>
+      <c r="F196" t="s">
         <v>387</v>
-      </c>
-      <c r="F196" t="s">
-        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7410,10 +7407,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>388</v>
+      </c>
+      <c r="F197" t="s">
         <v>389</v>
-      </c>
-      <c r="F197" t="s">
-        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -7439,10 +7436,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>390</v>
+      </c>
+      <c r="F198" t="s">
         <v>391</v>
-      </c>
-      <c r="F198" t="s">
-        <v>392</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7468,10 +7465,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>392</v>
+      </c>
+      <c r="F199" t="s">
         <v>393</v>
-      </c>
-      <c r="F199" t="s">
-        <v>394</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7497,10 +7494,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>394</v>
+      </c>
+      <c r="F200" t="s">
         <v>395</v>
-      </c>
-      <c r="F200" t="s">
-        <v>396</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7526,10 +7523,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>396</v>
+      </c>
+      <c r="F201" t="s">
         <v>397</v>
-      </c>
-      <c r="F201" t="s">
-        <v>398</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7555,10 +7552,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>398</v>
+      </c>
+      <c r="F202" t="s">
         <v>399</v>
-      </c>
-      <c r="F202" t="s">
-        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7584,10 +7581,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>400</v>
+      </c>
+      <c r="F203" t="s">
         <v>401</v>
-      </c>
-      <c r="F203" t="s">
-        <v>402</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7613,10 +7610,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>402</v>
+      </c>
+      <c r="F204" t="s">
         <v>403</v>
-      </c>
-      <c r="F204" t="s">
-        <v>404</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7642,10 +7639,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>404</v>
+      </c>
+      <c r="F205" t="s">
         <v>405</v>
-      </c>
-      <c r="F205" t="s">
-        <v>406</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7671,10 +7668,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>406</v>
+      </c>
+      <c r="F206" t="s">
         <v>407</v>
-      </c>
-      <c r="F206" t="s">
-        <v>408</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7700,10 +7697,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>408</v>
+      </c>
+      <c r="F207" t="s">
         <v>409</v>
-      </c>
-      <c r="F207" t="s">
-        <v>410</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7729,10 +7726,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>410</v>
+      </c>
+      <c r="F208" t="s">
         <v>411</v>
-      </c>
-      <c r="F208" t="s">
-        <v>412</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7758,10 +7755,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>412</v>
+      </c>
+      <c r="F209" t="s">
         <v>413</v>
-      </c>
-      <c r="F209" t="s">
-        <v>414</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7787,10 +7784,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>414</v>
+      </c>
+      <c r="F210" t="s">
         <v>415</v>
-      </c>
-      <c r="F210" t="s">
-        <v>416</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7816,10 +7813,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>416</v>
+      </c>
+      <c r="F211" t="s">
         <v>417</v>
-      </c>
-      <c r="F211" t="s">
-        <v>418</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7845,10 +7842,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>418</v>
+      </c>
+      <c r="F212" t="s">
         <v>419</v>
-      </c>
-      <c r="F212" t="s">
-        <v>420</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7874,10 +7871,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>420</v>
+      </c>
+      <c r="F213" t="s">
         <v>421</v>
-      </c>
-      <c r="F213" t="s">
-        <v>422</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7903,10 +7900,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>422</v>
+      </c>
+      <c r="F214" t="s">
         <v>423</v>
-      </c>
-      <c r="F214" t="s">
-        <v>424</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7932,10 +7929,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>424</v>
+      </c>
+      <c r="F215" t="s">
         <v>425</v>
-      </c>
-      <c r="F215" t="s">
-        <v>426</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7961,10 +7958,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>426</v>
+      </c>
+      <c r="F216" t="s">
         <v>427</v>
-      </c>
-      <c r="F216" t="s">
-        <v>428</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7990,10 +7987,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>428</v>
+      </c>
+      <c r="F217" t="s">
         <v>429</v>
-      </c>
-      <c r="F217" t="s">
-        <v>430</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8019,10 +8016,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>430</v>
+      </c>
+      <c r="F218" t="s">
         <v>431</v>
-      </c>
-      <c r="F218" t="s">
-        <v>432</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8048,10 +8045,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>432</v>
+      </c>
+      <c r="F219" t="s">
         <v>433</v>
-      </c>
-      <c r="F219" t="s">
-        <v>434</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8077,10 +8074,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>434</v>
+      </c>
+      <c r="F220" t="s">
         <v>435</v>
-      </c>
-      <c r="F220" t="s">
-        <v>436</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8106,10 +8103,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>436</v>
+      </c>
+      <c r="F221" t="s">
         <v>437</v>
-      </c>
-      <c r="F221" t="s">
-        <v>438</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8135,10 +8132,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>438</v>
+      </c>
+      <c r="F222" t="s">
         <v>439</v>
-      </c>
-      <c r="F222" t="s">
-        <v>440</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8164,10 +8161,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>440</v>
+      </c>
+      <c r="F223" t="s">
         <v>441</v>
-      </c>
-      <c r="F223" t="s">
-        <v>442</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8193,10 +8190,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>442</v>
+      </c>
+      <c r="F224" t="s">
         <v>443</v>
-      </c>
-      <c r="F224" t="s">
-        <v>444</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8222,10 +8219,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>444</v>
+      </c>
+      <c r="F225" t="s">
         <v>445</v>
-      </c>
-      <c r="F225" t="s">
-        <v>446</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8251,10 +8248,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F226" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
